--- a/ironhack/function_clone/dictionary/dictionary.xlsx
+++ b/ironhack/function_clone/dictionary/dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Dropbox/graduation/thesis/function/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Programming/PythonPractice/ironhack/function_clone/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +341,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -375,11 +380,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -891,7 +897,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D6" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,205 +913,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1182,20 +1226,20 @@
         <v>74</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1213,23 +1257,23 @@
       <c r="E3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1248,23 +1292,23 @@
       <c r="E4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,23 +1327,23 @@
       <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1318,23 +1362,23 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1399,7 +1443,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ironhack/function_clone/dictionary/dictionary.xlsx
+++ b/ironhack/function_clone/dictionary/dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="libraries" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>Libraries</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>googleMap</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>suggested</t>
@@ -340,7 +337,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="14"/>
@@ -380,12 +376,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -669,221 +677,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="15.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -894,266 +900,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="37.33203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="N22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="11:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="K25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="M25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1163,274 +1190,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="11.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
